--- a/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="65">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -231,28 +231,25 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
+    <t>REFNO</t>
   </si>
   <si>
-    <t>forename</t>
+    <t>FORENAME</t>
   </si>
   <si>
-    <t>surname</t>
+    <t>SURNAME</t>
   </si>
   <si>
-    <t>ppsno</t>
+    <t>PPSNO</t>
   </si>
   <si>
-    <t>sper</t>
+    <t>SPER</t>
   </si>
   <si>
     <t>899555</t>
   </si>
   <si>
     <t>969877</t>
-  </si>
-  <si>
-    <t>SPER</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1696,24 +1693,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2094,24 +2091,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2696,24 +2693,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3466,24 +3463,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4361,24 +4358,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5062,24 +5059,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5763,24 +5760,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5805,24 +5802,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6506,24 +6503,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6547,7 +6544,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
@@ -6557,22 +6554,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6953,24 +6950,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7351,24 +7348,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
